--- a/youtube_webscrab/Ken Jee.xlsx
+++ b/youtube_webscrab/Ken Jee.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1640</v>
+        <v>2044</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45022</v>
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58473</v>
+        <v>64131</v>
       </c>
       <c r="E3" t="n">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45019</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2727</v>
+        <v>2753</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3124</v>
+        <v>3157</v>
       </c>
       <c r="E5" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2485</v>
+        <v>2509</v>
       </c>
       <c r="E6" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2620</v>
+        <v>2710</v>
       </c>
       <c r="E7" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="E8" t="n">
         <v>102</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2203</v>
+        <v>2220</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="E11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14874</v>
+        <v>14947</v>
       </c>
       <c r="E12" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F12" t="n">
         <v>49</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4877</v>
+        <v>4909</v>
       </c>
       <c r="E13" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E14" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3060</v>
+        <v>3067</v>
       </c>
       <c r="E16" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4448</v>
+        <v>4472</v>
       </c>
       <c r="E17" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3172</v>
+        <v>3185</v>
       </c>
       <c r="E18" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F18" t="n">
         <v>12</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4219</v>
+        <v>4250</v>
       </c>
       <c r="E19" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="E20" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6544</v>
+        <v>6579</v>
       </c>
       <c r="E21" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E22" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3527</v>
+        <v>3538</v>
       </c>
       <c r="E23" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F23" t="n">
         <v>6</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5489</v>
+        <v>5501</v>
       </c>
       <c r="E24" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7668</v>
+        <v>7691</v>
       </c>
       <c r="E26" t="n">
         <v>449</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3961</v>
+        <v>3967</v>
       </c>
       <c r="E27" t="n">
         <v>402</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5834</v>
+        <v>5841</v>
       </c>
       <c r="E28" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4627</v>
+        <v>4633</v>
       </c>
       <c r="E29" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F29" t="n">
         <v>6</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6004</v>
+        <v>6009</v>
       </c>
       <c r="E30" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>98996</v>
+        <v>99470</v>
       </c>
       <c r="E31" t="n">
-        <v>3431</v>
+        <v>3446</v>
       </c>
       <c r="F31" t="n">
         <v>229</v>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4520</v>
+        <v>4523</v>
       </c>
       <c r="E32" t="n">
         <v>191</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18839</v>
+        <v>18854</v>
       </c>
       <c r="E33" t="n">
         <v>797</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10104</v>
+        <v>10109</v>
       </c>
       <c r="E34" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F34" t="n">
         <v>50</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>51461</v>
+        <v>51548</v>
       </c>
       <c r="E35" t="n">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="F35" t="n">
         <v>122</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5332</v>
+        <v>5339</v>
       </c>
       <c r="E36" t="n">
         <v>348</v>
@@ -1609,13 +1609,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15833</v>
+        <v>15842</v>
       </c>
       <c r="E37" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F37" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>44802</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>23632</v>
+        <v>23673</v>
       </c>
       <c r="E40" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F40" t="n">
         <v>62</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>51963</v>
+        <v>52100</v>
       </c>
       <c r="E41" t="n">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="F41" t="n">
         <v>85</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15570</v>
+        <v>15582</v>
       </c>
       <c r="E43" t="n">
         <v>827</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>45932</v>
+        <v>46002</v>
       </c>
       <c r="E45" t="n">
         <v>1269</v>
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19297</v>
+        <v>19318</v>
       </c>
       <c r="E46" t="n">
         <v>835</v>
       </c>
       <c r="F46" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>44645</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10789</v>
+        <v>10792</v>
       </c>
       <c r="E48" t="n">
         <v>506</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>89304</v>
+        <v>89333</v>
       </c>
       <c r="E49" t="n">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="F49" t="n">
         <v>184</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6837</v>
+        <v>6841</v>
       </c>
       <c r="E50" t="n">
         <v>316</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>20245</v>
+        <v>20276</v>
       </c>
       <c r="E52" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F52" t="n">
         <v>92</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="E53" t="n">
         <v>417</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8299</v>
+        <v>8309</v>
       </c>
       <c r="E54" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F54" t="n">
         <v>32</v>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>34004</v>
+        <v>34032</v>
       </c>
       <c r="E55" t="n">
         <v>1912</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14250</v>
+        <v>14251</v>
       </c>
       <c r="E56" t="n">
         <v>642</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>327764</v>
+        <v>327911</v>
       </c>
       <c r="E57" t="n">
-        <v>14573</v>
+        <v>14577</v>
       </c>
       <c r="F57" t="n">
         <v>531</v>
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9881</v>
+        <v>9889</v>
       </c>
       <c r="E58" t="n">
         <v>380</v>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7831</v>
+        <v>7833</v>
       </c>
       <c r="E59" t="n">
         <v>557</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>23755</v>
+        <v>23759</v>
       </c>
       <c r="E60" t="n">
         <v>1155</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>28784</v>
+        <v>28790</v>
       </c>
       <c r="E61" t="n">
         <v>1081</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>114928</v>
+        <v>115006</v>
       </c>
       <c r="E62" t="n">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="F62" t="n">
         <v>347</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7896</v>
+        <v>7902</v>
       </c>
       <c r="E63" t="n">
         <v>386</v>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>11270</v>
+        <v>11282</v>
       </c>
       <c r="E65" t="n">
         <v>266</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5955</v>
+        <v>5964</v>
       </c>
       <c r="E66" t="n">
         <v>264</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6613</v>
+        <v>6614</v>
       </c>
       <c r="E67" t="n">
         <v>294</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5753</v>
+        <v>5756</v>
       </c>
       <c r="E69" t="n">
         <v>277</v>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>12457</v>
+        <v>12463</v>
       </c>
       <c r="E70" t="n">
         <v>530</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9723</v>
+        <v>9727</v>
       </c>
       <c r="E71" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F71" t="n">
         <v>32</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>38521</v>
+        <v>38565</v>
       </c>
       <c r="E72" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F72" t="n">
         <v>30</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50198</v>
+        <v>50207</v>
       </c>
       <c r="E73" t="n">
         <v>2323</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9789</v>
+        <v>9797</v>
       </c>
       <c r="E74" t="n">
         <v>557</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9281</v>
+        <v>9284</v>
       </c>
       <c r="E76" t="n">
         <v>439</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13523</v>
+        <v>13536</v>
       </c>
       <c r="E78" t="n">
         <v>558</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="E79" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F79" t="n">
         <v>41</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8726</v>
+        <v>8730</v>
       </c>
       <c r="E80" t="n">
         <v>377</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>16077</v>
+        <v>16091</v>
       </c>
       <c r="E81" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F81" t="n">
         <v>89</v>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10339</v>
+        <v>10344</v>
       </c>
       <c r="E83" t="n">
         <v>588</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>14032</v>
+        <v>14044</v>
       </c>
       <c r="E85" t="n">
         <v>879</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>23627</v>
+        <v>23662</v>
       </c>
       <c r="E86" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F86" t="n">
         <v>58</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21768</v>
+        <v>21790</v>
       </c>
       <c r="E87" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F87" t="n">
         <v>87</v>
@@ -3241,13 +3241,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>74557</v>
+        <v>74581</v>
       </c>
       <c r="E88" t="n">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="F88" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44309</v>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>23158</v>
+        <v>23162</v>
       </c>
       <c r="E89" t="n">
         <v>685</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>133894</v>
+        <v>133911</v>
       </c>
       <c r="E90" t="n">
         <v>3928</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>51801</v>
+        <v>51812</v>
       </c>
       <c r="E91" t="n">
         <v>1488</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17754</v>
+        <v>17765</v>
       </c>
       <c r="E93" t="n">
         <v>348</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>104087</v>
+        <v>104089</v>
       </c>
       <c r="E98" t="n">
         <v>2338</v>
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10223</v>
+        <v>10236</v>
       </c>
       <c r="E99" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F99" t="n">
         <v>114</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9167</v>
+        <v>9169</v>
       </c>
       <c r="E101" t="n">
         <v>293</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>21181</v>
+        <v>21191</v>
       </c>
       <c r="E102" t="n">
         <v>683</v>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>35334</v>
+        <v>35347</v>
       </c>
       <c r="E103" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F103" t="n">
         <v>147</v>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>68344</v>
+        <v>68353</v>
       </c>
       <c r="E104" t="n">
         <v>2288</v>
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>130896</v>
+        <v>130907</v>
       </c>
       <c r="E105" t="n">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="F105" t="n">
         <v>494</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>10640</v>
+        <v>10641</v>
       </c>
       <c r="E106" t="n">
         <v>392</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>23155</v>
+        <v>23156</v>
       </c>
       <c r="E107" t="n">
         <v>721</v>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>26254</v>
+        <v>26259</v>
       </c>
       <c r="E108" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F108" t="n">
         <v>167</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>16383</v>
+        <v>16386</v>
       </c>
       <c r="E111" t="n">
         <v>717</v>
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>25392</v>
+        <v>25405</v>
       </c>
       <c r="E112" t="n">
         <v>652</v>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>17925</v>
+        <v>17934</v>
       </c>
       <c r="E113" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F113" t="n">
         <v>92</v>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>13365</v>
+        <v>13367</v>
       </c>
       <c r="E116" t="n">
         <v>392</v>
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6478</v>
+        <v>6480</v>
       </c>
       <c r="E117" t="n">
         <v>141</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10261</v>
+        <v>10270</v>
       </c>
       <c r="E118" t="n">
         <v>533</v>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>9302</v>
+        <v>9305</v>
       </c>
       <c r="E119" t="n">
         <v>572</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11253</v>
+        <v>11256</v>
       </c>
       <c r="E122" t="n">
         <v>287</v>
@@ -4361,10 +4361,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>70283</v>
+        <v>70304</v>
       </c>
       <c r="E123" t="n">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="F123" t="n">
         <v>208</v>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>10590</v>
+        <v>10596</v>
       </c>
       <c r="E125" t="n">
         <v>428</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7324</v>
+        <v>7325</v>
       </c>
       <c r="E126" t="n">
         <v>249</v>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>11564</v>
+        <v>11566</v>
       </c>
       <c r="E132" t="n">
         <v>729</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>17762</v>
+        <v>17764</v>
       </c>
       <c r="E133" t="n">
         <v>565</v>
@@ -4713,10 +4713,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>17288</v>
+        <v>17294</v>
       </c>
       <c r="E134" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F134" t="n">
         <v>93</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>50589</v>
+        <v>50591</v>
       </c>
       <c r="E135" t="n">
         <v>2602</v>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14808</v>
+        <v>14813</v>
       </c>
       <c r="E136" t="n">
         <v>618</v>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>12422</v>
+        <v>12423</v>
       </c>
       <c r="E137" t="n">
         <v>450</v>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>28868</v>
+        <v>28869</v>
       </c>
       <c r="E139" t="n">
         <v>1108</v>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="E142" t="n">
         <v>183</v>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>10844</v>
+        <v>10846</v>
       </c>
       <c r="E143" t="n">
         <v>359</v>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>14249</v>
+        <v>14253</v>
       </c>
       <c r="E145" t="n">
         <v>600</v>
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>11109</v>
+        <v>11112</v>
       </c>
       <c r="E147" t="n">
         <v>574</v>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5524</v>
+        <v>5527</v>
       </c>
       <c r="E149" t="n">
         <v>251</v>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>28308</v>
+        <v>28313</v>
       </c>
       <c r="E152" t="n">
         <v>560</v>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>291207</v>
+        <v>291439</v>
       </c>
       <c r="E153" t="n">
-        <v>6651</v>
+        <v>6659</v>
       </c>
       <c r="F153" t="n">
         <v>401</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>29832</v>
+        <v>29833</v>
       </c>
       <c r="E154" t="n">
         <v>1116</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>36085</v>
+        <v>36095</v>
       </c>
       <c r="E156" t="n">
         <v>826</v>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18400</v>
+        <v>18401</v>
       </c>
       <c r="E159" t="n">
         <v>776</v>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E160" t="n">
         <v>197</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10961</v>
+        <v>10970</v>
       </c>
       <c r="E167" t="n">
         <v>342</v>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>22686</v>
+        <v>22698</v>
       </c>
       <c r="E168" t="n">
         <v>666</v>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>65528</v>
+        <v>65567</v>
       </c>
       <c r="E170" t="n">
         <v>2071</v>
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>52539</v>
+        <v>52555</v>
       </c>
       <c r="E172" t="n">
         <v>1881</v>
@@ -5993,10 +5993,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>114668</v>
+        <v>114766</v>
       </c>
       <c r="E174" t="n">
-        <v>4046</v>
+        <v>4048</v>
       </c>
       <c r="F174" t="n">
         <v>192</v>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E176" t="n">
         <v>153</v>
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1384575</v>
+        <v>1384681</v>
       </c>
       <c r="E177" t="n">
-        <v>48902</v>
+        <v>48905</v>
       </c>
       <c r="F177" t="n">
         <v>2000</v>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>19936</v>
+        <v>19947</v>
       </c>
       <c r="E179" t="n">
         <v>1118</v>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="E180" t="n">
         <v>349</v>
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="E182" t="n">
         <v>85</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>18244</v>
+        <v>18266</v>
       </c>
       <c r="E184" t="n">
         <v>681</v>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>25664</v>
+        <v>25689</v>
       </c>
       <c r="E185" t="n">
         <v>688</v>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>38996</v>
+        <v>39032</v>
       </c>
       <c r="E186" t="n">
         <v>835</v>
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>65175</v>
+        <v>65224</v>
       </c>
       <c r="E187" t="n">
         <v>1781</v>
@@ -6441,10 +6441,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>70638</v>
+        <v>70688</v>
       </c>
       <c r="E188" t="n">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F188" t="n">
         <v>261</v>
@@ -6473,10 +6473,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>107039</v>
+        <v>107161</v>
       </c>
       <c r="E189" t="n">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="F189" t="n">
         <v>606</v>
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>160488</v>
+        <v>160714</v>
       </c>
       <c r="E190" t="n">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="F190" t="n">
         <v>162</v>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>61028</v>
+        <v>61039</v>
       </c>
       <c r="E192" t="n">
         <v>3804</v>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E193" t="n">
         <v>266</v>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>12341</v>
+        <v>12345</v>
       </c>
       <c r="E194" t="n">
         <v>456</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>10540</v>
+        <v>10541</v>
       </c>
       <c r="E195" t="n">
         <v>1133</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>17248</v>
+        <v>17251</v>
       </c>
       <c r="E196" t="n">
         <v>1288</v>
@@ -6761,10 +6761,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>338360</v>
+        <v>338405</v>
       </c>
       <c r="E198" t="n">
-        <v>20908</v>
+        <v>20913</v>
       </c>
       <c r="F198" t="n">
         <v>617</v>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>39803</v>
+        <v>39808</v>
       </c>
       <c r="E199" t="n">
         <v>1381</v>
@@ -6921,10 +6921,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>115368</v>
+        <v>115435</v>
       </c>
       <c r="E203" t="n">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="F203" t="n">
         <v>99</v>
@@ -6953,10 +6953,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>315419</v>
+        <v>315552</v>
       </c>
       <c r="E204" t="n">
-        <v>17419</v>
+        <v>17427</v>
       </c>
       <c r="F204" t="n">
         <v>519</v>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>68459</v>
+        <v>68460</v>
       </c>
       <c r="E205" t="n">
         <v>1953</v>
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>27398</v>
+        <v>27402</v>
       </c>
       <c r="E206" t="n">
         <v>1214</v>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>4957</v>
+        <v>4962</v>
       </c>
       <c r="E207" t="n">
         <v>301</v>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>27759</v>
+        <v>27772</v>
       </c>
       <c r="E208" t="n">
         <v>925</v>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>93026</v>
+        <v>93034</v>
       </c>
       <c r="E210" t="n">
         <v>2663</v>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>19739</v>
+        <v>19750</v>
       </c>
       <c r="E211" t="n">
         <v>583</v>
@@ -7209,10 +7209,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>108740</v>
+        <v>108755</v>
       </c>
       <c r="E212" t="n">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="F212" t="n">
         <v>583</v>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>29676</v>
+        <v>29680</v>
       </c>
       <c r="E213" t="n">
         <v>1967</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E215" t="n">
         <v>148</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>8258</v>
+        <v>8260</v>
       </c>
       <c r="E217" t="n">
         <v>372</v>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>15734</v>
+        <v>15739</v>
       </c>
       <c r="E219" t="n">
         <v>557</v>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>15936</v>
+        <v>15954</v>
       </c>
       <c r="E220" t="n">
         <v>469</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>100406</v>
+        <v>100412</v>
       </c>
       <c r="E221" t="n">
         <v>2935</v>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>10086</v>
+        <v>10098</v>
       </c>
       <c r="E222" t="n">
         <v>377</v>
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>55399</v>
+        <v>55409</v>
       </c>
       <c r="E223" t="n">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="F223" t="n">
         <v>223</v>
@@ -7625,10 +7625,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>65730</v>
+        <v>65774</v>
       </c>
       <c r="E225" t="n">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="F225" t="n">
         <v>227</v>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>6151</v>
+        <v>6152</v>
       </c>
       <c r="E226" t="n">
         <v>169</v>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="E228" t="n">
         <v>258</v>
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="E229" t="n">
         <v>1736</v>
@@ -7817,10 +7817,10 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E231" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F231" t="n">
         <v>13</v>
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E232" t="n">
         <v>72</v>
@@ -7913,7 +7913,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>11600</v>
+        <v>11604</v>
       </c>
       <c r="E234" t="n">
         <v>577</v>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="E235" t="n">
         <v>113</v>
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="E236" t="n">
         <v>94</v>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4138</v>
+        <v>4141</v>
       </c>
       <c r="E237" t="n">
         <v>94</v>
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>49535</v>
+        <v>49545</v>
       </c>
       <c r="E239" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F239" t="n">
         <v>109</v>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>14269</v>
+        <v>14277</v>
       </c>
       <c r="E240" t="n">
         <v>381</v>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>28785</v>
+        <v>28786</v>
       </c>
       <c r="E241" t="n">
         <v>1369</v>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E242" t="n">
         <v>107</v>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>147063</v>
+        <v>147089</v>
       </c>
       <c r="E243" t="n">
         <v>5643</v>
@@ -8233,7 +8233,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>34809</v>
+        <v>34818</v>
       </c>
       <c r="E244" t="n">
         <v>1171</v>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>12524</v>
+        <v>12525</v>
       </c>
       <c r="E245" t="n">
         <v>342</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>17187</v>
+        <v>17195</v>
       </c>
       <c r="E246" t="n">
         <v>514</v>
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>23795</v>
+        <v>23804</v>
       </c>
       <c r="E248" t="n">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F248" t="n">
         <v>89</v>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11480</v>
+        <v>11482</v>
       </c>
       <c r="E249" t="n">
         <v>477</v>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>6840</v>
+        <v>6842</v>
       </c>
       <c r="E250" t="n">
         <v>141</v>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>25508</v>
+        <v>25509</v>
       </c>
       <c r="E253" t="n">
         <v>1064</v>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>19961</v>
+        <v>19967</v>
       </c>
       <c r="E255" t="n">
         <v>543</v>
@@ -8617,10 +8617,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>46045</v>
+        <v>46050</v>
       </c>
       <c r="E256" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F256" t="n">
         <v>336</v>
@@ -8649,7 +8649,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>27954</v>
+        <v>27955</v>
       </c>
       <c r="E257" t="n">
         <v>760</v>
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E261" t="n">
         <v>179</v>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E263" t="n">
         <v>35</v>
@@ -8873,7 +8873,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>15515</v>
+        <v>15529</v>
       </c>
       <c r="E264" t="n">
         <v>323</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E268" t="n">
         <v>106</v>
@@ -9065,10 +9065,10 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>17102</v>
+        <v>17110</v>
       </c>
       <c r="E270" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F270" t="n">
         <v>54</v>
@@ -9129,7 +9129,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6320</v>
+        <v>6321</v>
       </c>
       <c r="E272" t="n">
         <v>197</v>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>8418</v>
+        <v>8420</v>
       </c>
       <c r="E273" t="n">
         <v>191</v>
@@ -9193,7 +9193,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>18579</v>
+        <v>18584</v>
       </c>
       <c r="E274" t="n">
         <v>290</v>
